--- a/data/asia/china/raw/calc_monthly.xlsx
+++ b/data/asia/china/raw/calc_monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kow\Documents\WeChat Files\wxid_87fl7j8e5qry12\FileStorage\File\2022-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\GlobalPowerUpdate-Kow\data\asia\china\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE7365-C44A-4F19-85C8-82DA79B7815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893969F3-6222-4F01-A122-02204162259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="1410" windowWidth="22755" windowHeight="16770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="540" windowWidth="22755" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source_data" sheetId="1" r:id="rId1"/>
@@ -498,26 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="苹方-简"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="苹方-简"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="苹方-简"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -532,6 +512,23 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -716,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,55 +837,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,27 +1169,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="I15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28:U28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="23" customWidth="1"/>
-    <col min="2" max="13" width="9" style="23"/>
-    <col min="14" max="14" width="12.625" style="23"/>
-    <col min="15" max="18" width="9" style="23"/>
-    <col min="19" max="19" width="9.5" style="23"/>
-    <col min="20" max="20" width="10.5" style="23"/>
-    <col min="21" max="25" width="9" style="23"/>
-    <col min="26" max="26" width="11.625" style="23" customWidth="1"/>
-    <col min="27" max="27" width="10.375" style="23" customWidth="1"/>
-    <col min="28" max="28" width="9" style="23"/>
-    <col min="29" max="29" width="8" style="23" customWidth="1"/>
-    <col min="30" max="31" width="7.125" style="23" customWidth="1"/>
-    <col min="32" max="32" width="9.125" style="23" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="23" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="29.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="23"/>
+    <col min="13" max="13" width="43.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
@@ -1763,7 +1780,7 @@
       <c r="E18" s="23">
         <v>732</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="58">
         <v>762</v>
       </c>
       <c r="G18" s="23">
@@ -1836,7 +1853,7 @@
       <c r="E19" s="23">
         <v>1116</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="58">
         <v>1160</v>
       </c>
       <c r="G19" s="23">
@@ -2768,7 +2785,7 @@
         <f t="shared" si="9"/>
         <v>4784.0999999999995</v>
       </c>
-      <c r="S28" s="56">
+      <c r="S28" s="41">
         <v>195.88319999999999</v>
       </c>
       <c r="T28" s="36">
@@ -3069,7 +3086,7 @@
       <c r="E34" s="23">
         <v>12.5</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="58">
         <v>10.8</v>
       </c>
       <c r="G34" s="23">
@@ -4839,937 +4856,937 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E30"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="10.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="56" t="s">
         <v>60</v>
       </c>
       <c r="M1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="56" t="s">
         <v>62</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="56" t="s">
         <v>64</v>
       </c>
       <c r="Q1" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="56" t="s">
         <v>66</v>
       </c>
       <c r="S1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="44">
         <v>2021</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="44">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="50">
         <v>556585.57880000002</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="50">
         <v>518019.00709999999</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="50">
         <v>1159.2307000000001</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="50">
         <v>22605.598099999999</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="50">
         <v>13734.703600000001</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2" s="50">
         <v>1067.0391999999999</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="50">
         <v>33982.027900000001</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2" s="50">
         <v>83357.286399999997</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="50">
         <v>47344.607600000003</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="50">
         <v>20867.989600000001</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q2" s="54">
+      <c r="Q2" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R2" s="54">
+      <c r="R2" s="50">
         <v>0</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2" s="50">
         <v>165314.95319999999</v>
       </c>
       <c r="T2" s="51">
         <v>577640.57454699895</v>
       </c>
-      <c r="U2" s="54">
+      <c r="U2" s="50">
         <v>742147.85629999998</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="44">
         <v>2021</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="44">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="50">
         <v>346999.93030000001</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="50">
         <v>322955.8333</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="50">
         <v>722.71540000000005</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="50">
         <v>14093.3241</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="50">
         <v>8562.8183000000008</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="50">
         <v>665.23919999999998</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="50">
         <v>20897.535199999998</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="50">
         <v>54294.017999999996</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="50">
         <v>57245.571100000001</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="50">
         <v>25232.017800000001</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="50">
         <v>0</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="50">
         <v>145344.79130000001</v>
       </c>
       <c r="T3" s="51">
         <v>359835.14257800003</v>
       </c>
-      <c r="U3" s="54">
+      <c r="U3" s="50">
         <v>504679.43849999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>2021</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="44">
         <v>3</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="50">
         <v>476615.15759999998</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="50">
         <v>443589.84519999998</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="50">
         <v>992.67200000000003</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="50">
         <v>19357.6175</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="50">
         <v>11761.2963</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="50">
         <v>913.72659999999996</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="50">
         <v>32158.784800000001</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="50">
         <v>71323.464699999997</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="50">
         <v>54142.143900000003</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="50">
         <v>26348.200400000002</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="50">
         <v>0</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="50">
         <v>163585.47140000001</v>
       </c>
       <c r="T4" s="51">
         <v>497736.55047999998</v>
       </c>
-      <c r="U4" s="54">
+      <c r="U4" s="50">
         <v>660598.11739999999</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>2021</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="44">
         <v>4</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="50">
         <v>434678.33559999999</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="50">
         <v>404558.88260000001</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="50">
         <v>905.32799999999997</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="50">
         <v>17654.3629</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="50">
         <v>10726.433300000001</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="50">
         <v>833.3288</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="50">
         <v>30429.1103</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="50">
         <v>82667.474499999997</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="50">
         <v>53696.106</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="50">
         <v>26834.0537</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="50">
         <v>0</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="50">
         <v>173934.43359999999</v>
       </c>
       <c r="T5" s="51">
         <v>455052.82723499998</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="50">
         <v>628315.44609999994</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>2021</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="44">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="50">
         <v>433735.28629999998</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="50">
         <v>403681.17849999998</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="50">
         <v>903.36379999999997</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="50">
         <v>17616.061099999999</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="50">
         <v>10703.162</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="50">
         <v>831.52089999999998</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="50">
         <v>32196.386399999999</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="50">
         <v>101819.1456</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="50">
         <v>57939.184800000003</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="50">
         <v>30945.120500000001</v>
       </c>
-      <c r="P6" s="54">
+      <c r="P6" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="50">
         <v>0</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="50">
         <v>201416.97889999999</v>
       </c>
       <c r="T6" s="51">
         <v>455918.211496</v>
       </c>
-      <c r="U6" s="54">
+      <c r="U6" s="50">
         <v>656645.48970000003</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>2021</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="44">
         <v>6</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="50">
         <v>463171.89449999999</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="50">
         <v>431078.08409999998</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="50">
         <v>964.673</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="50">
         <v>18811.6224</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="50">
         <v>11429.560799999999</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="50">
         <v>887.95429999999999</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="50">
         <v>33728.652399999999</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="50">
         <v>121599.26420000001</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="50">
         <v>44134.882400000002</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="50">
         <v>30085.533800000001</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="50">
         <v>0</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="50">
         <v>207259.6072</v>
       </c>
       <c r="T7" s="51">
         <v>436288.11985700001</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="50">
         <v>692730.59329999995</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="44">
         <v>2021</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="44">
         <v>7</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="50">
         <v>504213.78200000001</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="50">
         <v>469276.12339999998</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="50">
         <v>1050.1532</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="50">
         <v>20478.529399999999</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="50">
         <v>12442.3397</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="50">
         <v>966.63639999999998</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="50">
         <v>35928.347099999999</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="50">
         <v>151487.8009</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="50">
         <v>43425.796499999997</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="50">
         <v>30309.773799999999</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="50">
         <v>0</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="50">
         <v>237676.07689999999</v>
       </c>
       <c r="T8" s="51">
         <v>463780.825533</v>
       </c>
-      <c r="U8" s="54">
+      <c r="U8" s="50">
         <v>765375.86629999999</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="44">
         <v>2021</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="44">
         <v>8</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="50">
         <v>497208.27350000001</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="50">
         <v>462756.03600000002</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="50">
         <v>1035.5624</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="50">
         <v>20194.002199999999</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="50">
         <v>12269.4668</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="50">
         <v>953.20600000000002</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="50">
         <v>34339.678699999997</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="50">
         <v>145948.94159999999</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="50">
         <v>36838.159200000002</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="50">
         <v>29693.113799999999</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="50">
         <v>0</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="50">
         <v>224760.04740000001</v>
       </c>
       <c r="T9" s="51">
         <v>509654.81691499997</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="50">
         <v>744038.53280000004</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="44">
         <v>2021</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="44">
         <v>9</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="50">
         <v>435092.1225</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="50">
         <v>404943.9976</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="50">
         <v>906.18979999999999</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="50">
         <v>17671.168699999998</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="50">
         <v>10736.644200000001</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="50">
         <v>834.12210000000005</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="50">
         <v>31246.945500000002</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="50">
         <v>150060.47949999999</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="50">
         <v>38919.669600000001</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="50">
         <v>27712.327099999999</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="50">
         <v>0</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="50">
         <v>227439.48639999999</v>
       </c>
       <c r="T10" s="51">
         <v>426980.46906700003</v>
       </c>
-      <c r="U10" s="54">
+      <c r="U10" s="50">
         <v>683041.91020000004</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="44">
         <v>2021</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="44">
         <v>10</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="50">
         <v>410293.77679999999</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="50">
         <v>381863.96309999999</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="50">
         <v>854.54089999999997</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="50">
         <v>16663.9895</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="50">
         <v>10124.702499999999</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="50">
         <v>786.58079999999995</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="50">
         <v>31519.557199999999</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="50">
         <v>127148.7751</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="50">
         <v>53170.009899999997</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="50">
         <v>25395.180400000001</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="50">
         <v>0</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="50">
         <v>215849.03400000001</v>
       </c>
       <c r="T11" s="51">
         <v>402120.07221299998</v>
       </c>
-      <c r="U11" s="54">
+      <c r="U11" s="50">
         <v>647537.6655</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="44">
         <v>2021</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="44">
         <v>11</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="50">
         <v>446986.09029999998</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="50">
         <v>416013.81630000001</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="50">
         <v>930.96199999999999</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="50">
         <v>18154.239600000001</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="50">
         <v>11030.148300000001</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="50">
         <v>856.92420000000004</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="50">
         <v>31604.160899999999</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="50">
         <v>95971.388399999996</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="50">
         <v>59037.124400000001</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="50">
         <v>26516.380399999998</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="50">
         <v>0</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12" s="50">
         <v>192565.4075</v>
       </c>
       <c r="T12" s="51">
         <v>472288.59660500003</v>
       </c>
-      <c r="U12" s="54">
+      <c r="U12" s="50">
         <v>660125.51049999997</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="44">
         <v>2021</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="44">
         <v>12</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="50">
         <v>522795.70110000001</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="50">
         <v>486570.47600000002</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="50">
         <v>1088.8547000000001</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="50">
         <v>21233.229800000001</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="50">
         <v>12900.8804</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="50">
         <v>1002.2601</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="50">
         <v>35044.709000000003</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="50">
         <v>76169.9666</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="50">
         <v>65327.402999999998</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="50">
         <v>26497.6937</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="50">
         <v>9.3918999999999997</v>
       </c>
-      <c r="Q13" s="54">
+      <c r="Q13" s="50">
         <v>0.97419999999999995</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="50">
         <v>0</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="50">
         <v>180906.30979999999</v>
       </c>
       <c r="T13" s="51">
         <v>563923.39910599997</v>
       </c>
-      <c r="U13" s="54">
+      <c r="U13" s="50">
         <v>725845.8395</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="44">
         <v>2021</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="44">
         <v>1</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="52">
@@ -5810,19 +5827,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="44">
         <v>2021</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="44">
         <v>2</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="52">
@@ -5863,19 +5880,19 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="44">
         <v>2021</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="44">
         <v>3</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="52">
@@ -5916,19 +5933,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="44">
         <v>2021</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="44">
         <v>4</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="52">
@@ -5969,19 +5986,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="44">
         <v>2021</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="44">
         <v>5</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="52">
@@ -6022,19 +6039,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="44">
         <v>2021</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="44">
         <v>6</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="52">
@@ -6075,19 +6092,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="44">
         <v>2021</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="44">
         <v>7</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="52">
@@ -6128,19 +6145,19 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="44">
         <v>2021</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="44">
         <v>8</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="52">
@@ -6181,19 +6198,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="44">
         <v>2021</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="44">
         <v>9</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="52">
@@ -6234,19 +6251,19 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="44">
         <v>2021</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="44">
         <v>10</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="52">
@@ -6287,19 +6304,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="44">
         <v>2021</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="44">
         <v>11</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="52">
@@ -6340,19 +6357,19 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="44">
         <v>2021</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="44">
         <v>12</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="43" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="52">
@@ -6393,321 +6410,321 @@
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="53">
         <f>G2/$F2</f>
         <v>0.93070864002055231</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="53">
         <f t="shared" ref="H34:H45" si="9">H2/$F2</f>
         <v>2.0827537474098854E-3</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="53">
         <f t="shared" ref="I34:I45" si="10">I2/$F2</f>
         <v>4.0614775087665277E-2</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="54">
         <f t="shared" ref="J34:J45" si="11">J2/$F2</f>
         <v>2.4676714818253211E-2</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="54">
         <f t="shared" ref="K34:K45" si="12">K2/$F2</f>
         <v>1.9171161464523376E-3</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="53">
         <f t="shared" ref="G35:G45" si="13">G3/$F3</f>
         <v>0.93070864026049627</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537324724357E-3</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775016858264E-2</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714754948183E-2</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="54">
         <f t="shared" si="12"/>
         <v>1.9171162352247884E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864013998367</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537357364146E-3</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775236011084E-2</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714771775441E-2</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="54">
         <f t="shared" si="12"/>
         <v>1.9171161164933963E-3</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864008341903</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="53">
         <f t="shared" si="9"/>
         <v>2.0827539029529677E-3</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775235188881E-2</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714760108694E-2</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="54">
         <f t="shared" si="12"/>
         <v>1.9171160183304981E-3</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864015612376</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537637211602E-3</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775086146825E-2</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714895169923E-2</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="54">
         <f t="shared" si="12"/>
         <v>1.9171160988383713E-3</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864018067057</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537496448849E-3</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="53">
         <f t="shared" si="10"/>
         <v>4.061477525597141E-2</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714921008661E-2</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="54">
         <f t="shared" si="12"/>
         <v>1.9171161086070606E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864016961752</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="53">
         <f t="shared" si="9"/>
         <v>2.0827538585607322E-3</v>
       </c>
-      <c r="I40" s="55">
+      <c r="I40" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775182801328E-2</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="54">
         <f t="shared" si="11"/>
         <v>2.467671480665715E-2</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="54">
         <f t="shared" si="12"/>
         <v>1.9171161806917844E-3</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="55">
+      <c r="G41" s="53">
         <f t="shared" si="13"/>
         <v>0.9307086399478427</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537577167853E-3</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775087808343E-2</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714877714119E-2</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="54">
         <f t="shared" si="12"/>
         <v>1.9171161277950859E-3</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="53">
         <f t="shared" si="13"/>
         <v>0.93070863998462761</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="53">
         <f t="shared" si="9"/>
         <v>2.0827538655333847E-3</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775092831054E-2</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714757114457E-2</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K42" s="54">
         <f t="shared" si="12"/>
         <v>1.9171160700570948E-3</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="55">
+      <c r="G43" s="53">
         <f t="shared" si="13"/>
         <v>0.9307086402291247</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537445603293E-3</v>
       </c>
-      <c r="I43" s="55">
+      <c r="I43" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775173943123E-2</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714765126312E-2</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="54">
         <f t="shared" si="12"/>
         <v>1.9171160872455133E-3</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F44" s="41" t="s">
+      <c r="F44" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864021917865</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="53">
         <f t="shared" si="9"/>
         <v>2.0827538489512592E-3</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775255792789E-2</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714867339578E-2</v>
       </c>
-      <c r="K44" s="53">
+      <c r="K44" s="54">
         <f t="shared" si="12"/>
         <v>1.9171160324583372E-3</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="53">
         <f t="shared" si="13"/>
         <v>0.93070864006000908</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="53">
         <f t="shared" si="9"/>
         <v>2.0827537367062716E-3</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45" s="53">
         <f t="shared" si="10"/>
         <v>4.0614775055196034E-2</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="54">
         <f t="shared" si="11"/>
         <v>2.4676714771861386E-2</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="54">
         <f t="shared" si="12"/>
         <v>1.9171161849479102E-3</v>
       </c>
@@ -6722,8 +6739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95:L106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10399,8 +10416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10492,7 +10509,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2">
-        <v>506922.32585727185</v>
+        <v>506922.32585727202</v>
       </c>
       <c r="C2" s="2">
         <v>23490.173001089879</v>
@@ -11418,7 +11435,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="V23" s="57"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
